--- a/biology/Origine et évolution du vivant/Babesia_divergens/Babesia_divergens.xlsx
+++ b/biology/Origine et évolution du vivant/Babesia_divergens/Babesia_divergens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Babesia divergens est un parasite intraerythrocytique transmis par la tique Ixodes ricinus. Il est un des agents principaux de la babésiose bovine en Europe, mais peut aussi toucher d'autres animaux[1]. Les jeunes bovins sont moins sensibles.
-Après morsure de l'hôte par le bovin, Babesia divergens infeste les hématies en pénétrant la membrane. Elle va s'y multiplier. Les cycles de multiplication sont plus ou moins nombreux, et s'ils sont trop nombreux peuvent donner lieu à l'éclatement des hématies. La reproduction sexuée s'effectue chez la tique[2], qui est infestée par morsure d'un animal contaminé. 
-Les signes cliniques observables s'expliquent en partie par l'éclatement des hématies [2]: 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Babesia divergens est un parasite intraerythrocytique transmis par la tique Ixodes ricinus. Il est un des agents principaux de la babésiose bovine en Europe, mais peut aussi toucher d'autres animaux. Les jeunes bovins sont moins sensibles.
+Après morsure de l'hôte par le bovin, Babesia divergens infeste les hématies en pénétrant la membrane. Elle va s'y multiplier. Les cycles de multiplication sont plus ou moins nombreux, et s'ils sont trop nombreux peuvent donner lieu à l'éclatement des hématies. La reproduction sexuée s'effectue chez la tique, qui est infestée par morsure d'un animal contaminé. 
+Les signes cliniques observables s'expliquent en partie par l'éclatement des hématies : 
 Anémies ;
 Thrombose ;
 Hémoglobinuries ;
